--- a/data/trans_bre/P17_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P17_R-Clase-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.346249577323407</v>
+        <v>4.489556958952646</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.502108595564675</v>
+        <v>6.751112947508847</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.755841942883005</v>
+        <v>-2.430502256065538</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.615460419106909</v>
+        <v>-4.154442506596139</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.06967627207009985</v>
+        <v>0.07304829648241723</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1009436193327933</v>
+        <v>0.1008976633835682</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.02266558886610744</v>
+        <v>-0.03170544080465657</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.0602312374676042</v>
+        <v>-0.05492063613615738</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>18.264640584352</v>
+        <v>17.89278135807415</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>19.93368347093118</v>
+        <v>20.36246042626817</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.88837749166149</v>
+        <v>11.15562227183067</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.058726117874298</v>
+        <v>6.174614662895865</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3264229560238783</v>
+        <v>0.3200675171681624</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3366578639964504</v>
+        <v>0.3377568295229964</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1599049923873835</v>
+        <v>0.1647813650508328</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1042511474119409</v>
+        <v>0.0892680159370678</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.221239971900079</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.75205723824391</v>
+        <v>2.752057238243932</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2044394347858647</v>
@@ -749,7 +749,7 @@
         <v>0.01685241505924387</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.03957516713907252</v>
+        <v>0.03957516713907284</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.957110703011664</v>
+        <v>5.476001754725191</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.743347586655511</v>
+        <v>3.899230473595125</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-5.350292080001057</v>
+        <v>-4.872815361296038</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.974330321246854</v>
+        <v>-3.267316599080049</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.07914766712334863</v>
+        <v>0.08878540081955434</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06586530031529204</v>
+        <v>0.05581948601521474</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.07062151643549017</v>
+        <v>-0.06506450530581294</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.04113847885080311</v>
+        <v>-0.04201234824255395</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>19.15011374789782</v>
+        <v>19.41040244879604</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>18.43246669035836</v>
+        <v>18.42141195430798</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.357084776606793</v>
+        <v>7.949934101473575</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.926767087364841</v>
+        <v>8.797576852423601</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3431667287823099</v>
+        <v>0.3462171077188445</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2939744623145205</v>
+        <v>0.2967757752037249</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.120146716997998</v>
+        <v>0.1152063139549921</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.135683533592083</v>
+        <v>0.1342993664126478</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>10.59846302514723</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.997137932351392</v>
+        <v>4.997137932351359</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1594408777471457</v>
@@ -849,7 +849,7 @@
         <v>0.1396382912936965</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.06901760765878498</v>
+        <v>0.06901760765878449</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.749837477097628</v>
+        <v>2.419472044475035</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.304030718561921</v>
+        <v>-0.5520551500658176</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.796775983948209</v>
+        <v>3.758594928026055</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.483901160465014</v>
+        <v>-1.355743446930866</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.04168452165642935</v>
+        <v>0.0368831149345358</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.01767776145984882</v>
+        <v>-0.007398679982968404</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04883135402415478</v>
+        <v>0.05174928308837407</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.03278858394071372</v>
+        <v>-0.01867251786363007</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.89289699789604</v>
+        <v>18.35241206139464</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.54679208419259</v>
+        <v>11.65473514415932</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.76435584879728</v>
+        <v>16.19277897932021</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.53674071279184</v>
+        <v>11.66119787500151</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2901727819683527</v>
+        <v>0.2939305928473063</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1591150005841225</v>
+        <v>0.1620347895742129</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2295558483100788</v>
+        <v>0.2234946779940188</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1660129672801323</v>
+        <v>0.1692898475974373</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.724210729576507</v>
+        <v>6.0140285550882</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.147144794643393</v>
+        <v>5.28904136254253</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.156672623051023</v>
+        <v>2.817460071062522</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5.67763574096007</v>
+        <v>5.709430495125269</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.08469627531717021</v>
+        <v>0.08987981403721534</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06806880606803241</v>
+        <v>0.07155031672498482</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04183619162023817</v>
+        <v>0.03880873966554359</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.08533427677051104</v>
+        <v>0.08265411751747577</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>14.12674645106689</v>
+        <v>14.36874493714528</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.16325768072886</v>
+        <v>13.23044522619943</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.80178593510547</v>
+        <v>10.86997008945672</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>14.08999923626285</v>
+        <v>14.21463526904379</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2191986404212592</v>
+        <v>0.2242942794246122</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1831753879941327</v>
+        <v>0.1871431437117944</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1482974908948418</v>
+        <v>0.1501131659502578</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2261376585546747</v>
+        <v>0.2232862894077268</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>9.039163258212527</v>
+        <v>8.956557327951369</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.643590611488496</v>
+        <v>5.529080966551853</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.188350311635419</v>
+        <v>2.075300009649685</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.575072977429877</v>
+        <v>6.443362490506057</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1361994161494608</v>
+        <v>0.136747474394695</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07208341935230769</v>
+        <v>0.07215582750959088</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02711824321444141</v>
+        <v>0.02636946397128082</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.08909571579943491</v>
+        <v>0.08805359432393184</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>22.14923478289886</v>
+        <v>21.55945114085331</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.98688419911553</v>
+        <v>14.43546600308769</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.48933838458286</v>
+        <v>11.10473165455587</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16.82589649493139</v>
+        <v>16.14981084282918</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3893160229972021</v>
+        <v>0.3725655835400138</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2098109987902487</v>
+        <v>0.2006524513060932</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1570044957100973</v>
+        <v>0.1506221440289321</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2542043510216153</v>
+        <v>0.2439028443913715</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>12.77229157527072</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25.52673378165361</v>
+        <v>25.52673378165362</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5134013943205844</v>
@@ -1149,7 +1149,7 @@
         <v>0.1808130151498186</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.476327602410432</v>
+        <v>0.4763276024104323</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>21.35176066765753</v>
+        <v>20.93592265199137</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>12.89447201403486</v>
+        <v>13.23934915285027</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6.886164337978149</v>
+        <v>6.923740975478963</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14.88206020724071</v>
+        <v>15.42984534444773</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3797266512518096</v>
+        <v>0.360631882092659</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1851646058739207</v>
+        <v>0.1921717403725027</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09174976779141222</v>
+        <v>0.09204608778582696</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2349154412422401</v>
+        <v>0.2427930106734178</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>32.73374427203262</v>
+        <v>33.01742368967018</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>25.2817610786602</v>
+        <v>25.63274540707191</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>18.75942075822495</v>
+        <v>18.79265005609866</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>36.9877740097268</v>
+        <v>36.67304264120817</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.701234965042062</v>
+        <v>0.7143335501451146</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4360322016221228</v>
+        <v>0.4415971046482246</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.287274507203837</v>
+        <v>0.2870940958609883</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8639727897711695</v>
+        <v>0.8503316761216771</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>11.74559892340613</v>
+        <v>11.62970259058572</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>9.076493311501793</v>
+        <v>8.896173238907332</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.220342735694997</v>
+        <v>5.232711817356839</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.537435053742435</v>
+        <v>6.810191025128298</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1845677656051601</v>
+        <v>0.1830322877371337</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.125898687619321</v>
+        <v>0.1236963014794003</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06902870627860534</v>
+        <v>0.06980927010365426</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.09347265978395329</v>
+        <v>0.09808676817472442</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>16.40596888441677</v>
+        <v>15.97934180835233</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.58537537202463</v>
+        <v>12.99601077189046</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.131780724978803</v>
+        <v>9.299667740065134</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11.1701085907596</v>
+        <v>11.0589351349648</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2690762845062296</v>
+        <v>0.2618841435696154</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1953775181975264</v>
+        <v>0.1857595900656045</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1242487382441524</v>
+        <v>0.1277287671158943</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.167775089812301</v>
+        <v>0.1664289319700474</v>
       </c>
     </row>
     <row r="25">
